--- a/BalanceSheet/SLB_bal.xlsx
+++ b/BalanceSheet/SLB_bal.xlsx
@@ -4624,7 +4624,7 @@
         <v>13298000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>14538000000.0</v>
+        <v>13621000000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>14041000000.0</v>
@@ -4751,7 +4751,7 @@
         <v>16642000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>16705000000.0</v>
+        <v>15788000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>16333000000.0</v>
